--- a/middle-to-gun/Excel/GUN_步枪表.xlsx
+++ b/middle-to-gun/Excel/GUN_步枪表.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,92 +27,710 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>GUNNAME</t>
+  </si>
+  <si>
+    <t>GUNPREFAB</t>
+  </si>
+  <si>
+    <t>GUNICON</t>
+  </si>
+  <si>
+    <t>GUNICON_M</t>
+  </si>
+  <si>
+    <t>GUNLOC</t>
+  </si>
+  <si>
+    <t>GUNSCALE</t>
+  </si>
+  <si>
+    <t>IATURNICON</t>
+  </si>
+  <si>
+    <t>PRICETYPE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>FIREINTERVAL</t>
+  </si>
+  <si>
+    <t>BULLETCOUNT</t>
+  </si>
+  <si>
+    <t>HURT</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>枪名字</t>
+  </si>
+  <si>
+    <t>枪预制体Guid</t>
+  </si>
+  <si>
+    <t>枪ICON</t>
+  </si>
+  <si>
+    <t>枪模型</t>
+  </si>
+  <si>
+    <t>枪展示位置</t>
+  </si>
+  <si>
+    <t>枪缩放</t>
+  </si>
+  <si>
+    <t>是否翻转ICON</t>
+  </si>
+  <si>
+    <t>0：免费
+1：金币购买|Ads
+2：ads</t>
+  </si>
+  <si>
+    <t>钻石|金币</t>
+  </si>
+  <si>
+    <t>发射间隔</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>M4A1卡宾枪</t>
+  </si>
+  <si>
+    <t>587777AD4056DC3AB465FBA7D3F5F7BA</t>
+  </si>
+  <si>
+    <t>-20|0|0</t>
+  </si>
+  <si>
+    <t>1|1|1</t>
+  </si>
+  <si>
+    <t>1|15888</t>
+  </si>
+  <si>
+    <t>AK47自动步枪</t>
+  </si>
+  <si>
+    <t>0D543D5346C331F41DA890A5E6DD3DB5</t>
+  </si>
+  <si>
+    <t>1|18888</t>
+  </si>
+  <si>
+    <t>QBZ95式突击步枪</t>
+  </si>
+  <si>
+    <t>E3E0C2994D3518540DBB6D8C00C8AB83</t>
+  </si>
+  <si>
+    <t>0|0|0</t>
+  </si>
+  <si>
+    <t>2|35888</t>
+  </si>
+  <si>
+    <t>SCAR突击步枪</t>
+  </si>
+  <si>
+    <t>5181250F44DF914A714B668F99177E3A</t>
+  </si>
+  <si>
+    <t>-10|0|0</t>
+  </si>
+  <si>
+    <t>3|48888</t>
+  </si>
+  <si>
+    <t>突击步枪</t>
+  </si>
+  <si>
+    <t>1CD6AEAB4602DF140ACE93BD49D5CA19</t>
+  </si>
+  <si>
+    <t>4|58888</t>
+  </si>
+  <si>
+    <t>MP5冲锋枪</t>
+  </si>
+  <si>
+    <t>A469CCC84AAA873815243BB25439707C</t>
+  </si>
+  <si>
+    <t>MP7冲锋枪</t>
+  </si>
+  <si>
+    <t>68E812DC47B714F9A2BB2ABE18304C5B</t>
+  </si>
+  <si>
+    <t>-5|0|0</t>
+  </si>
+  <si>
+    <t>P90冲锋枪</t>
+  </si>
+  <si>
+    <t>BA1BDC034FCDE8574CBBAA8C4831A950</t>
+  </si>
+  <si>
+    <t>10|0|0</t>
+  </si>
+  <si>
+    <t>5|68888</t>
+  </si>
+  <si>
+    <t>M249机枪</t>
+  </si>
+  <si>
+    <t>FCFE18BE440FAEBD5AB999A222F10AA9</t>
+  </si>
+  <si>
+    <t>5|78888</t>
+  </si>
+  <si>
+    <t>激光幽灵枪</t>
+  </si>
+  <si>
+    <t>23240FEE4F3BD25DE8EA6DBE525B3A20</t>
+  </si>
+  <si>
+    <t>8|138888</t>
+  </si>
+  <si>
+    <t>烟花枪</t>
+  </si>
+  <si>
+    <t>A830458640D6EA21FB7AEA8F7E029CB7</t>
+  </si>
+  <si>
+    <t>10|158888</t>
+  </si>
+  <si>
+    <t>激光烈火枪</t>
+  </si>
+  <si>
+    <t>0C7F278C4254F90F69614086DCA0B906</t>
+  </si>
+  <si>
+    <t>-30|0|0</t>
+  </si>
+  <si>
+    <t>12|188888</t>
+  </si>
+  <si>
+    <t>激光冰雷枪</t>
+  </si>
+  <si>
+    <t>29CD5E6145D1B05590E887A050E0D3C8</t>
+  </si>
+  <si>
+    <t>15|208888</t>
+  </si>
+  <si>
+    <t>激光巴雷特</t>
+  </si>
+  <si>
+    <t>015C826546EBC60F95EF399D16523B78</t>
+  </si>
+  <si>
+    <t>20|388888</t>
+  </si>
+  <si>
+    <t>鸡枪</t>
+  </si>
+  <si>
+    <t>5F47861B4393F17B401DE1B260C37FFF</t>
+  </si>
+  <si>
+    <t>5|-1</t>
+  </si>
+  <si>
+    <t>彩弹枪</t>
+  </si>
+  <si>
+    <t>1172035A40E88AC00E32E98A96BA38B4</t>
+  </si>
+  <si>
+    <t>20|288888</t>
+  </si>
+  <si>
+    <t>F518B8734B62A572C083A0A12C0DA023</t>
+  </si>
+  <si>
+    <t>1|-1</t>
+  </si>
+  <si>
+    <t>水枪</t>
+  </si>
+  <si>
+    <t>2A3F2A5E4DA7B3C642E5AB8389FB8D48</t>
+  </si>
+  <si>
+    <t>火枪</t>
+  </si>
+  <si>
+    <t>5EF3A3E148FA5DADA349E5A05B93D1D6</t>
+  </si>
+  <si>
+    <t>泡泡枪</t>
+  </si>
+  <si>
+    <t>897F01494E651D7D9E00ECAD4D14C16C</t>
+  </si>
+  <si>
+    <t>小人闪电枪</t>
+  </si>
+  <si>
+    <t>9EFD21B44E4996A620BBA9964807B840</t>
+  </si>
+  <si>
+    <t>脉冲枪</t>
+  </si>
+  <si>
+    <t>E9FC6ACE4AC66809036C0CA0E3515AC4</t>
+  </si>
+  <si>
+    <t>火炮枪</t>
+  </si>
+  <si>
+    <t>B94E161D48D474A8BAC442A20B9913C5</t>
+  </si>
+  <si>
+    <t>1DF90AAD4856CE9C07101B83DD991369</t>
+  </si>
+  <si>
+    <t>萝卜枪</t>
+  </si>
+  <si>
+    <t>AD25752D4D06791DD146D0ADC87C08C8</t>
+  </si>
+  <si>
+    <t>加特林</t>
+  </si>
+  <si>
+    <t>E9308DA44D32ECF1E19F618CFEDA57F9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,95 +739,332 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +1113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -289,26 +1146,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -341,23 +1181,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,89 +1322,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="M1" s="1" t="str">
-        <v>int</v>
+    <row r="1" ht="21" customHeight="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -591,45 +1391,45 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>GUNNAME</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>GUNPREFAB</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>GUNICON</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>GUNICON_M</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>GUNLOC</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>GUNSCALE</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>IATURNICON</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <v>PRICETYPE</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <v>PRICE</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <v>FIREINTERVAL</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <v>BULLETCOUNT</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <v>HURT</v>
+    <row r="2" ht="21" customHeight="1" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -639,47 +1439,45 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="48" r="3">
-      <c r="A3" s="1" t="str">
-        <v>唯一ID</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>枪名字</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>枪预制体Guid</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>枪ICON</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>枪模型</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>枪展示位置</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>枪缩放</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <v>是否翻转ICON</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <v>0：免费
-1：金币购买|Ads
-2：ads</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>钻石|金币</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <v>发射间隔</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <v>子弹</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <v>伤害</v>
+    <row r="3" ht="48" customHeight="1" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -689,7 +1487,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row r="4" ht="21" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -711,34 +1509,34 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row r="5" ht="21" customHeight="1" spans="1:20">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>M4A1卡宾枪</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <v>587777AD4056DC3AB465FBA7D3F5F7BA</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>101168</v>
       </c>
       <c r="E5" s="2">
-        <v>94153</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <v>-20|0|0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <v>1|1|1</v>
+        <v>155696</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K5" s="2">
         <v>0.2</v>
@@ -757,34 +1555,34 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row r="6" ht="21" customHeight="1" spans="1:20">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>AK47自动步枪</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <v>0D543D5346C331F41DA890A5E6DD3DB5</v>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>101171</v>
       </c>
       <c r="E6" s="2">
-        <v>95712</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <v>-20|0|0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <v>1|1|1</v>
+        <v>226214</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="str">
-        <v>1|18888</v>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="K6" s="2">
         <v>0.2</v>
@@ -803,34 +1601,34 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row r="7" ht="21" customHeight="1" spans="1:20">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>QBZ95式突击步枪</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <v>E3E0C2994D3518540DBB6D8C00C8AB83</v>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="2">
         <v>120590</v>
       </c>
       <c r="E7" s="2">
-        <v>44974</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <v>1|1|1</v>
+        <v>226213</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="str">
-        <v>2|35888</v>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K7" s="2">
         <v>0.15</v>
@@ -849,34 +1647,34 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row r="8" ht="21" customHeight="1" spans="1:20">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>SCAR突击步枪</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>5181250F44DF914A714B668F99177E3A</v>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="2">
         <v>120588</v>
       </c>
       <c r="E8" s="2">
-        <v>43712</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <v>-10|0|0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <v>1|1|1</v>
+        <v>155702</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="str">
-        <v>3|48888</v>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="K8" s="2">
         <v>0.15</v>
@@ -895,27 +1693,27 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row r="9" ht="21" customHeight="1" spans="1:20">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="str">
-        <v>突击步枪</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <v>1CD6AEAB4602DF140ACE93BD49D5CA19</v>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="3">
         <v>120587</v>
       </c>
       <c r="E9" s="3">
-        <v>43710</v>
-      </c>
-      <c r="F9" s="3" t="str">
-        <v>-10|0|0</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <v>1|1|1</v>
+        <v>318664</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -923,8 +1721,8 @@
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="3" t="str">
-        <v>4|58888</v>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K9" s="3">
         <v>0.1</v>
@@ -943,34 +1741,34 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row r="10" ht="21" customHeight="1" spans="1:20">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="str">
-        <v>MP5冲锋枪</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <v>A469CCC84AAA873815243BB25439707C</v>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>101167</v>
       </c>
       <c r="E10" s="2">
-        <v>99703</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <v>1|1|1</v>
+        <v>158519</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="str">
-        <v>4|58888</v>
+      <c r="J10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="K10" s="2">
         <v>0.1</v>
@@ -989,34 +1787,34 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row r="11" ht="21" customHeight="1" spans="1:20">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>MP7冲锋枪</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <v>68E812DC47B714F9A2BB2ABE18304C5B</v>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="2">
         <v>101169</v>
       </c>
       <c r="E11" s="2">
-        <v>99701</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <v>-5|0|0</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <v>1|1|1</v>
+        <v>320982</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <v>4|58888</v>
+      <c r="J11" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="K11" s="2">
         <v>0.1</v>
@@ -1035,34 +1833,34 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row r="12" ht="21" customHeight="1" spans="1:20">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>P90冲锋枪</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <v>BA1BDC034FCDE8574CBBAA8C4831A950</v>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="2">
         <v>120592</v>
       </c>
       <c r="E12" s="2">
-        <v>43734</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <v>10|0|0</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <v>1|1|1</v>
+        <v>138203</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="str">
-        <v>5|68888</v>
+      <c r="J12" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K12" s="2">
         <v>0.1</v>
@@ -1081,34 +1879,34 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row r="13" ht="21" customHeight="1" spans="1:20">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>M249机枪</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <v>FCFE18BE440FAEBD5AB999A222F10AA9</v>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="2">
         <v>101166</v>
       </c>
       <c r="E13" s="2">
-        <v>95717</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <v>-20|0|0</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <v>1|1|1</v>
+        <v>223966</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="2" t="str">
-        <v>5|78888</v>
+      <c r="J13" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="K13" s="2">
         <v>0.2</v>
@@ -1127,25 +1925,25 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row r="14" ht="21" customHeight="1" spans="1:20">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>激光幽灵枪</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <v>23240FEE4F3BD25DE8EA6DBE525B3A20</v>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>122716</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1153,8 +1951,8 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2" t="str">
-        <v>8|138888</v>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="2">
         <v>0.3</v>
@@ -1173,31 +1971,31 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row r="15" ht="21" customHeight="1" spans="1:20">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>烟花枪</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>A830458640D6EA21FB7AEA8F7E029CB7</v>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>122726</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="2" t="str">
-        <v>10|158888</v>
+      <c r="J15" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K15" s="1">
         <v>0.3</v>
@@ -1216,15 +2014,15 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row r="16" ht="21" customHeight="1" spans="1:20">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>激光烈火枪</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <v>0C7F278C4254F90F69614086DCA0B906</v>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D16" s="2">
         <v>101163</v>
@@ -1232,18 +2030,18 @@
       <c r="E16" s="2">
         <v>95676</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="F16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="2" t="str">
-        <v>12|188888</v>
+      <c r="J16" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K16" s="2">
         <v>0.3</v>
@@ -1262,15 +2060,15 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row r="17" ht="21" customHeight="1" spans="1:20">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>激光冰雷枪</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <v>29CD5E6145D1B05590E887A050E0D3C8</v>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="2">
         <v>66181</v>
@@ -1278,18 +2076,18 @@
       <c r="E17" s="2">
         <v>122720</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <v>15|208888</v>
+      <c r="J17" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K17" s="2">
         <v>0.3</v>
@@ -1308,27 +2106,27 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row r="18" ht="21" customHeight="1" spans="1:20">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>激光巴雷特</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <v>015C826546EBC60F95EF399D16523B78</v>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D18" s="2">
         <v>101165</v>
       </c>
-      <c r="E18" s="4">
-        <v>99699</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="E18" s="6">
+        <v>226826</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1336,8 +2134,8 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="2" t="str">
-        <v>20|388888</v>
+      <c r="J18" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -1356,7 +2154,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row r="19" ht="21" customHeight="1" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1377,7 +2175,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row r="20" ht="21" customHeight="1" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1398,7 +2196,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row r="21" ht="21" customHeight="1" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1419,29 +2217,29 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row r="22" ht="21" customHeight="1" spans="1:20">
       <c r="A22" s="2"/>
-      <c r="B22" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>5F47861B4393F17B401DE1B260C37FFF</v>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <v>20799</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G22" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="1" t="str">
-        <v>5|-1</v>
+      <c r="J22" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K22" s="1">
         <v>0.3</v>
@@ -1460,29 +2258,29 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row r="23" ht="21" customHeight="1" spans="1:20">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>1172035A40E88AC00E32E98A96BA38B4</v>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
         <v>87019</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G23" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="str">
-        <v>20|288888</v>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -1501,28 +2299,28 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row r="24" ht="21" customHeight="1" spans="1:20">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>F518B8734B62A572C083A0A12C0DA023</v>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>20799</v>
       </c>
-      <c r="F24" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F24" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="J24" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J24" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
@@ -1537,28 +2335,28 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row r="25" ht="21" customHeight="1" spans="1:20">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="str">
-        <v>水枪</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>2A3F2A5E4DA7B3C642E5AB8389FB8D48</v>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
         <v>122716</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J25" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1571,28 +2369,28 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row r="26" ht="21" customHeight="1" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="str">
-        <v>火枪</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <v>5EF3A3E148FA5DADA349E5A05B93D1D6</v>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
         <v>122726</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F26" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J26" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1605,28 +2403,28 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row r="27" ht="21" customHeight="1" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="str">
-        <v>泡泡枪</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <v>897F01494E651D7D9E00ECAD4D14C16C</v>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>168811</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F27" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J27" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1639,28 +2437,28 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row r="28" ht="21" customHeight="1" spans="1:20">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="str">
-        <v>小人闪电枪</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <v>9EFD21B44E4996A620BBA9964807B840</v>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <v>135222</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="J28" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J28" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1673,28 +2471,28 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row r="29" ht="21" customHeight="1" spans="1:20">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="str">
-        <v>脉冲枪</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <v>E9FC6ACE4AC66809036C0CA0E3515AC4</v>
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <v>153110</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F29" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J29" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1707,28 +2505,28 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row r="30" ht="21" customHeight="1" spans="1:20">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="str">
-        <v>火炮枪</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>B94E161D48D474A8BAC442A20B9913C5</v>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <v>218325</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J30" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1741,28 +2539,28 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row r="31" ht="21" customHeight="1" spans="1:20">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <v>1DF90AAD4856CE9C07101B83DD991369</v>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <v>87019</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J31" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1775,28 +2573,28 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row r="32" ht="21" customHeight="1" spans="1:20">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="str">
-        <v>萝卜枪</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <v>AD25752D4D06791DD146D0ADC87C08C8</v>
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <v>174519</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F32" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J32" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1809,28 +2607,28 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row r="33" ht="21" customHeight="1" spans="1:20">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="str">
-        <v>加特林</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <v>E9308DA44D32ECF1E19F618CFEDA57F9</v>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
         <v>223966</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J33" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1844,6 +2642,7 @@
       <c r="T33" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/middle-to-gun/Excel/GUN_步枪表.xlsx
+++ b/middle-to-gun/Excel/GUN_步枪表.xlsx
@@ -47,15 +47,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,7 +68,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,8 +81,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +179,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -187,14 +187,14 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,1301 +521,1301 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="3" t="str">
+    <row customHeight="true" ht="25" r="1">
+      <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="3" t="str">
+      <c r="E1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="1" t="str">
         <v>vector3</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="1" t="str">
         <v>vector3</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="1" t="str">
         <v>int</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="1" t="str">
         <v>int</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="1" t="str">
         <v>int[]</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="1" t="str">
         <v>int</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="1" t="str">
         <v>int</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="3" t="str">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="2">
+      <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="1" t="str">
         <v>GUNNAME</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="1" t="str">
         <v>GUNPREFAB</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="1" t="str">
         <v>GUNICON</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="1" t="str">
         <v>GUNICON_M</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="1" t="str">
         <v>GUNLOC</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="1" t="str">
         <v>GUNSCALE</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" s="1" t="str">
         <v>IATURNICON</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="1" t="str">
         <v>PRICETYPE</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" s="1" t="str">
         <v>PRICE</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="K2" s="1" t="str">
         <v>FIREINTERVAL</v>
       </c>
-      <c r="L2" s="3" t="str">
+      <c r="L2" s="1" t="str">
         <v>BULLETCOUNT</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" s="1" t="str">
         <v>HURT</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row customHeight="true" ht="51" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row customHeight="true" ht="55" r="3">
+      <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="1" t="str">
         <v>枪名字</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="1" t="str">
         <v>枪预制体Guid</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="1" t="str">
         <v>枪ICON</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="1" t="str">
         <v>枪模型</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="1" t="str">
         <v>枪展示位置</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" s="1" t="str">
         <v>枪缩放</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="1" t="str">
         <v>是否翻转ICON</v>
       </c>
-      <c r="I3" s="7" t="str">
+      <c r="I3" s="2" t="str">
         <v>0：免费
 1：金币购买|Ads
 2：ads</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="1" t="str">
         <v>钻石|金币</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="K3" s="1" t="str">
         <v>发射间隔</v>
       </c>
-      <c r="L3" s="3" t="str">
+      <c r="L3" s="1" t="str">
         <v>子弹</v>
       </c>
-      <c r="M3" s="3" t="str">
+      <c r="M3" s="1" t="str">
         <v>伤害</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="str">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="str">
         <v>水枪</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="3" t="str">
         <v>587777AD4056DC3AB465FBA7D3F5F7BA</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>166941</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G5" s="1" t="str">
+      <c r="F5" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G5" s="3" t="str">
         <v>1|2|1</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <v>1|15888</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <v>100|15888</v>
+      </c>
+      <c r="K5" s="3">
         <v>0.2</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>30</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>25</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="1">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="6">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="3" t="str">
         <v>泡泡枪</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="3" t="str">
         <v>0D543D5346C331F41DA890A5E6DD3DB5</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>155696</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G6" s="1" t="str">
+      <c r="F6" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G6" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <v>1|18888</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <v>100|18888</v>
+      </c>
+      <c r="K6" s="3">
         <v>0.2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>30</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>25</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="7">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="3" t="str">
         <v>霰弹枪</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="3" t="str">
         <v>E3E0C2994D3518540DBB6D8C00C8AB83</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>226214</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G7" s="1" t="str">
+      <c r="F7" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G7" s="3" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="str">
-        <v>2|35888</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <v>200|35888</v>
+      </c>
+      <c r="K7" s="3">
         <v>0.15</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>30</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <v>25</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="1">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="8">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="3" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="3" t="str">
         <v>5181250F44DF914A714B668F99177E3A</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>138213</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G8" s="1" t="str">
+      <c r="F8" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G8" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <v>3|48888</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <v>300|48888</v>
+      </c>
+      <c r="K8" s="3">
         <v>0.15</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="3">
         <v>30</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="3">
         <v>25</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="1">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="9">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="7" t="str">
         <v>脉冲枪</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="7" t="str">
         <v>1CD6AEAB4602DF140ACE93BD49D5CA19</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>153110</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G9" s="1" t="str">
+      <c r="F9" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G9" s="3" t="str">
         <v>2|2.5|2</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="str">
-        <v>4|58888</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="H9" s="7"/>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <v>400|58888</v>
+      </c>
+      <c r="K9" s="7">
         <v>0.1</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="7">
         <v>35</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="7">
         <v>25</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="1">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row customHeight="true" ht="25" r="10">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="5" t="str">
         <v>喷火枪</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="3" t="str">
         <v>A469CCC84AAA873815243BB25439707C</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>226213</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G10" s="1" t="str">
+      <c r="F10" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G10" s="3" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="str">
-        <v>4|58888</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <v>400|58888</v>
+      </c>
+      <c r="K10" s="3">
         <v>0.1</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="3">
         <v>35</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="3">
         <v>25</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="11">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="3" t="str">
         <v>散弹喷枪</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="3" t="str">
         <v>68E812DC47B714F9A2BB2ABE18304C5B</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>155702</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G11" s="1" t="str">
+      <c r="F11" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G11" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="str">
-        <v>4|58888</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <v>400|58888</v>
+      </c>
+      <c r="K11" s="3">
         <v>0.1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="3">
         <v>35</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="3">
         <v>25</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="12">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="3" t="str">
         <v>霰弹枪枪身</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="3" t="str">
         <v>BA1BDC034FCDE8574CBBAA8C4831A950</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>318664</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G12" s="1" t="str">
+      <c r="F12" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G12" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <v>5|68888</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <v>500|68888</v>
+      </c>
+      <c r="K12" s="3">
         <v>0.1</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="3">
         <v>40</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="3">
         <v>25</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="1">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="13">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="3" t="str">
         <v>火箭发射器</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="3" t="str">
         <v>FCFE18BE440FAEBD5AB999A222F10AA9</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>226826</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G13" s="1" t="str">
+      <c r="F13" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G13" s="3" t="str">
         <v>1.5|1|1</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="str">
-        <v>5|78888</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <v>500|78888</v>
+      </c>
+      <c r="K13" s="3">
         <v>0.2</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="3">
         <v>100</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="3">
         <v>25</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="14">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="3" t="str">
         <v>激光幽灵枪</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="3" t="str">
         <v>23240FEE4F3BD25DE8EA6DBE525B3A20</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>122716</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G14" s="1" t="str">
+      <c r="F14" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G14" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <v>8|138888</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <v>800|138888</v>
+      </c>
+      <c r="K14" s="3">
         <v>0.3</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="3">
         <v>40</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="3">
         <v>50</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="15">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="1" t="str">
         <v>烟花枪</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="1" t="str">
         <v>A830458640D6EA21FB7AEA8F7E029CB7</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>122726</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G15" s="1" t="str">
+      <c r="F15" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G15" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <v>10|158888</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <v>1000|158888</v>
+      </c>
+      <c r="K15" s="1">
         <v>0.3</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="1">
         <v>40</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="1">
         <v>50</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="16">
-      <c r="A16" s="1">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="16">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="str">
+      <c r="B16" s="3" t="str">
         <v>激光烈火枪</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="3" t="str">
         <v>0C7F278C4254F90F69614086DCA0B906</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>95676</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F16" s="3" t="str">
         <v>-30|0|0</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" s="3" t="str">
         <v>1|1|1</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <v>12|188888</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <v>1200|188888</v>
+      </c>
+      <c r="K16" s="3">
         <v>0.3</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="3">
         <v>40</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="3">
         <v>50</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="17">
-      <c r="A17" s="1">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="17">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="str">
+      <c r="B17" s="3" t="str">
         <v>激光冰雷枪</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="3" t="str">
         <v>29CD5E6145D1B05590E887A050E0D3C8</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>122720</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F17" s="3" t="str">
         <v>-30|0|0</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="G17" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <v>15|208888</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <v>1500|208888</v>
+      </c>
+      <c r="K17" s="3">
         <v>0.3</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="3">
         <v>40</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="3">
         <v>50</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="18">
-      <c r="A18" s="1">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="18">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" s="3" t="str">
         <v>尖叫鸡</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="3" t="str">
         <v>015C826546EBC60F95EF399D16523B78</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2">
+      <c r="D18" s="3"/>
+      <c r="E18" s="6">
         <v>20799</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G18" s="1" t="str">
+      <c r="F18" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G18" s="3" t="str">
         <v>2|2|3</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <v>20|388888</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <v>2000|388888</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
         <v>10</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="str">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="19">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="str">
         <v>鸡枪</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="1" t="str">
         <v>5F47861B4393F17B401DE1B260C37FFF</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
         <v>20799</v>
       </c>
-      <c r="F22" s="1" t="str">
+      <c r="F22" s="3" t="str">
         <v>-30|0|0</v>
       </c>
-      <c r="G22" s="1" t="str">
+      <c r="G22" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="3" t="str">
+      <c r="J22" s="1" t="str">
         <v>5|-1</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>0.3</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>20</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <v>100</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="str">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="str">
         <v>彩弹枪</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="1" t="str">
         <v>1172035A40E88AC00E32E98A96BA38B4</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>87019</v>
       </c>
-      <c r="F23" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G23" s="1" t="str">
+      <c r="F23" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G23" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3" t="str">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="str">
         <v>20|288888</v>
       </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
         <v>10</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="str">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="str">
         <v>鸡枪</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="1" t="str">
         <v>F518B8734B62A572C083A0A12C0DA023</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>20799</v>
       </c>
-      <c r="F24" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
+      <c r="F24" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="J24" s="3" t="str">
+      <c r="J24" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
         <v>25</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="str">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="str">
         <v>水枪</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="1" t="str">
         <v>2A3F2A5E4DA7B3C642E5AB8389FB8D48</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
         <v>122716</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" s="1" t="str">
         <v>-30|0|0</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="3" t="str">
+      <c r="J25" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="str">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="str">
         <v>火枪</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="1" t="str">
         <v>5EF3A3E148FA5DADA349E5A05B93D1D6</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
         <v>122726</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" s="1" t="str">
         <v>-30|0|0</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="3" t="str">
+      <c r="J26" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="27">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="str">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="str">
         <v>泡泡枪</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="1" t="str">
         <v>897F01494E651D7D9E00ECAD4D14C16C</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
         <v>168811</v>
       </c>
-      <c r="F27" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
+      <c r="F27" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="3" t="str">
+      <c r="J27" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="28">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="str">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="str">
         <v>小人闪电枪</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="1" t="str">
         <v>9EFD21B44E4996A620BBA9964807B840</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
         <v>135222</v>
       </c>
-      <c r="F28" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3">
+      <c r="F28" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="J28" s="3" t="str">
+      <c r="J28" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="29">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="str">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="str">
         <v>脉冲枪</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="1" t="str">
         <v>E9FC6ACE4AC66809036C0CA0E3515AC4</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
         <v>153110</v>
       </c>
-      <c r="F29" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3">
+      <c r="F29" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="3" t="str">
+      <c r="J29" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="30">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="str">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="str">
         <v>火炮枪</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="1" t="str">
         <v>B94E161D48D474A8BAC442A20B9913C5</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
         <v>218325</v>
       </c>
-      <c r="F30" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3">
+      <c r="F30" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="3" t="str">
+      <c r="J30" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="31">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="str">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="str">
         <v>彩弹枪</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="1" t="str">
         <v>1DF90AAD4856CE9C07101B83DD991369</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
         <v>87019</v>
       </c>
-      <c r="F31" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
+      <c r="F31" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="3" t="str">
+      <c r="J31" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="32">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="str">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="32">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="str">
         <v>萝卜枪</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="1" t="str">
         <v>AD25752D4D06791DD146D0ADC87C08C8</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
         <v>174519</v>
       </c>
-      <c r="F32" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
+      <c r="F32" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="3" t="str">
+      <c r="J32" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="33">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="str">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row customHeight="true" ht="25" r="33">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="str">
         <v>加特林</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="1" t="str">
         <v>E9308DA44D32ECF1E19F618CFEDA57F9</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
         <v>223966</v>
       </c>
-      <c r="F33" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3">
+      <c r="F33" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="3" t="str">
+      <c r="J33" s="1" t="str">
         <v>1|-1</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/middle-to-gun/Excel/GUN_步枪表.xlsx
+++ b/middle-to-gun/Excel/GUN_步枪表.xlsx
@@ -54,20 +54,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -90,7 +76,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,21 +179,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,7 +664,7 @@
       <c r="H3" s="1" t="str">
         <v>是否翻转ICON</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="5" t="str">
         <v>0：免费
 1：金币购买|Ads
 2：ads</v>
@@ -712,39 +712,39 @@
       <c r="T4" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="5">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="str">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <v>水枪</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="2" t="str">
         <v>587777AD4056DC3AB465FBA7D3F5F7BA</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>166941</v>
       </c>
-      <c r="F5" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G5" s="3" t="str">
+      <c r="F5" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G5" s="2" t="str">
         <v>1|2|1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <v>100|15888</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <v>1|15888</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>30</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>25</v>
       </c>
       <c r="N5" s="1"/>
@@ -756,39 +756,39 @@
       <c r="T5" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="2" t="str">
         <v>泡泡枪</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="2" t="str">
         <v>0D543D5346C331F41DA890A5E6DD3DB5</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>155696</v>
       </c>
-      <c r="F6" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G6" s="3" t="str">
+      <c r="F6" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G6" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <v>100|18888</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <v>1|15888</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.2</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>30</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>25</v>
       </c>
       <c r="N6" s="1"/>
@@ -800,39 +800,39 @@
       <c r="T6" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="2" t="str">
         <v>霰弹枪</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="2" t="str">
         <v>E3E0C2994D3518540DBB6D8C00C8AB83</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>226214</v>
       </c>
-      <c r="F7" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G7" s="3" t="str">
+      <c r="F7" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G7" s="2" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <v>200|35888</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <v>1|15888</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.15</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>30</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>25</v>
       </c>
       <c r="N7" s="1"/>
@@ -844,39 +844,39 @@
       <c r="T7" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="2" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="2" t="str">
         <v>5181250F44DF914A714B668F99177E3A</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>138213</v>
       </c>
-      <c r="F8" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G8" s="3" t="str">
+      <c r="F8" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <v>300|48888</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <v>1|15888</v>
+      </c>
+      <c r="K8" s="2">
         <v>0.15</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>30</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>25</v>
       </c>
       <c r="N8" s="1"/>
@@ -888,83 +888,83 @@
       <c r="T8" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="6" t="str">
         <v>脉冲枪</v>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="6" t="str">
         <v>1CD6AEAB4602DF140ACE93BD49D5CA19</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>153110</v>
       </c>
-      <c r="F9" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G9" s="3" t="str">
+      <c r="F9" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <v>2|2.5|2</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7" t="str">
-        <v>400|58888</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="H9" s="6"/>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <v>1|15888</v>
+      </c>
+      <c r="K9" s="6">
         <v>0.1</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>35</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>25</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
     <row customHeight="true" ht="25" r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="7" t="str">
         <v>喷火枪</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="2" t="str">
         <v>A469CCC84AAA873815243BB25439707C</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <v>226213</v>
       </c>
-      <c r="F10" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G10" s="3" t="str">
+      <c r="F10" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G10" s="2" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <v>400|58888</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <v>1|15888</v>
+      </c>
+      <c r="K10" s="2">
         <v>0.1</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>35</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>25</v>
       </c>
       <c r="N10" s="1"/>
@@ -976,185 +976,185 @@
       <c r="T10" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="2" t="str">
         <v>散弹喷枪</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <v>68E812DC47B714F9A2BB2ABE18304C5B</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
         <v>155702</v>
       </c>
-      <c r="F11" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G11" s="3" t="str">
+      <c r="F11" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G11" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <v>400|58888</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <v>2|28888</v>
+      </c>
+      <c r="K11" s="2">
         <v>0.1</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>35</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>25</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="2" t="str">
         <v>霰弹枪枪身</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="2" t="str">
         <v>BA1BDC034FCDE8574CBBAA8C4831A950</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
         <v>318664</v>
       </c>
-      <c r="F12" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G12" s="3" t="str">
+      <c r="F12" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G12" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <v>500|68888</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <v>2|28888</v>
+      </c>
+      <c r="K12" s="2">
         <v>0.1</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>40</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>25</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="2" t="str">
         <v>火箭发射器</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <v>FCFE18BE440FAEBD5AB999A222F10AA9</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
         <v>226826</v>
       </c>
-      <c r="F13" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G13" s="3" t="str">
+      <c r="F13" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G13" s="2" t="str">
         <v>1.5|1|1</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <v>500|78888</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <v>2|28888</v>
+      </c>
+      <c r="K13" s="2">
         <v>0.2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>100</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>25</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="2" t="str">
         <v>激光幽灵枪</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="2" t="str">
         <v>23240FEE4F3BD25DE8EA6DBE525B3A20</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>122716</v>
       </c>
-      <c r="F14" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G14" s="3" t="str">
+      <c r="F14" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G14" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <v>800|138888</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <v>3|38888</v>
+      </c>
+      <c r="K14" s="2">
         <v>0.3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>40</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>50</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="str">
@@ -1167,17 +1167,17 @@
       <c r="E15" s="1">
         <v>122726</v>
       </c>
-      <c r="F15" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G15" s="3" t="str">
+      <c r="F15" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G15" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <v>1000|158888</v>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <v>3|38888</v>
       </c>
       <c r="K15" s="1">
         <v>0.3</v>
@@ -1197,138 +1197,138 @@
       <c r="T15" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="2" t="str">
         <v>激光烈火枪</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="2" t="str">
         <v>0C7F278C4254F90F69614086DCA0B906</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
         <v>95676</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="2" t="str">
         <v>-30|0|0</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="G16" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <v>1200|188888</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <v>4|48888</v>
+      </c>
+      <c r="K16" s="2">
         <v>0.3</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>40</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>50</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="2" t="str">
         <v>激光冰雷枪</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="2" t="str">
         <v>29CD5E6145D1B05590E887A050E0D3C8</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
         <v>122720</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="2" t="str">
         <v>-30|0|0</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <v>1500|208888</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <v>4|48888</v>
+      </c>
+      <c r="K17" s="2">
         <v>0.3</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>40</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>50</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="2" t="str">
         <v>尖叫鸡</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="2" t="str">
         <v>015C826546EBC60F95EF399D16523B78</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6">
+      <c r="D18" s="2"/>
+      <c r="E18" s="4">
         <v>20799</v>
       </c>
-      <c r="F18" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G18" s="3" t="str">
+      <c r="F18" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="G18" s="2" t="str">
         <v>2|2|3</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <v>2000|388888</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <v>5|58888</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
         <v>10</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>100</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="19">
       <c r="A19" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="T21" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="22">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="str">
         <v>鸡枪</v>
       </c>
@@ -1405,10 +1405,10 @@
       <c r="E22" s="1">
         <v>20799</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" s="2" t="str">
         <v>-30|0|0</v>
       </c>
-      <c r="G22" s="3" t="str">
+      <c r="G22" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="I22" s="1">
@@ -1449,7 +1449,7 @@
       <c r="F23" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="G23" s="3" t="str">
+      <c r="G23" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="I23" s="1">
@@ -1458,13 +1458,13 @@
       <c r="J23" s="1" t="str">
         <v>20|288888</v>
       </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
         <v>10</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>100</v>
       </c>
       <c r="N23" s="1"/>

--- a/middle-to-gun/Excel/GUN_步枪表.xlsx
+++ b/middle-to-gun/Excel/GUN_步枪表.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,92 +27,686 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>GUNNAME</t>
+  </si>
+  <si>
+    <t>GUNPREFAB</t>
+  </si>
+  <si>
+    <t>GUNICON</t>
+  </si>
+  <si>
+    <t>GUNICON_M</t>
+  </si>
+  <si>
+    <t>GUNLOC</t>
+  </si>
+  <si>
+    <t>GUNSCALE</t>
+  </si>
+  <si>
+    <t>IATURNICON</t>
+  </si>
+  <si>
+    <t>PRICETYPE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>FIREINTERVAL</t>
+  </si>
+  <si>
+    <t>BULLETCOUNT</t>
+  </si>
+  <si>
+    <t>HURT</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>枪名字</t>
+  </si>
+  <si>
+    <t>枪预制体Guid</t>
+  </si>
+  <si>
+    <t>枪ICON</t>
+  </si>
+  <si>
+    <t>枪模型</t>
+  </si>
+  <si>
+    <t>枪展示位置</t>
+  </si>
+  <si>
+    <t>枪缩放</t>
+  </si>
+  <si>
+    <t>是否翻转ICON</t>
+  </si>
+  <si>
+    <t>0：免费
+1：金币购买|Ads
+2：ads</t>
+  </si>
+  <si>
+    <t>钻石|金币</t>
+  </si>
+  <si>
+    <t>发射间隔</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>水枪</t>
+  </si>
+  <si>
+    <t>587777AD4056DC3AB465FBA7D3F5F7BA</t>
+  </si>
+  <si>
+    <t>0|0|0</t>
+  </si>
+  <si>
+    <t>1|2|1</t>
+  </si>
+  <si>
+    <t>1|15888</t>
+  </si>
+  <si>
+    <t>泡泡枪</t>
+  </si>
+  <si>
+    <t>0D543D5346C331F41DA890A5E6DD3DB5</t>
+  </si>
+  <si>
+    <t>1|1|1</t>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>E3E0C2994D3518540DBB6D8C00C8AB83</t>
+  </si>
+  <si>
+    <t>2|2|2</t>
+  </si>
+  <si>
+    <t>金枪鱼</t>
+  </si>
+  <si>
+    <t>5181250F44DF914A714B668F99177E3A</t>
+  </si>
+  <si>
+    <t>脉冲枪</t>
+  </si>
+  <si>
+    <t>1CD6AEAB4602DF140ACE93BD49D5CA19</t>
+  </si>
+  <si>
+    <t>2|2.5|2</t>
+  </si>
+  <si>
+    <t>喷火枪</t>
+  </si>
+  <si>
+    <t>A469CCC84AAA873815243BB25439707C</t>
+  </si>
+  <si>
+    <t>散弹喷枪</t>
+  </si>
+  <si>
+    <t>68E812DC47B714F9A2BB2ABE18304C5B</t>
+  </si>
+  <si>
+    <t>2|28888</t>
+  </si>
+  <si>
+    <t>霰弹枪枪身</t>
+  </si>
+  <si>
+    <t>BA1BDC034FCDE8574CBBAA8C4831A950</t>
+  </si>
+  <si>
+    <t>火箭发射器</t>
+  </si>
+  <si>
+    <t>FCFE18BE440FAEBD5AB999A222F10AA9</t>
+  </si>
+  <si>
+    <t>1.5|1|1</t>
+  </si>
+  <si>
+    <t>激光幽灵枪</t>
+  </si>
+  <si>
+    <t>23240FEE4F3BD25DE8EA6DBE525B3A20</t>
+  </si>
+  <si>
+    <t>3|38888</t>
+  </si>
+  <si>
+    <t>烟花枪</t>
+  </si>
+  <si>
+    <t>A830458640D6EA21FB7AEA8F7E029CB7</t>
+  </si>
+  <si>
+    <t>激光烈火枪</t>
+  </si>
+  <si>
+    <t>0C7F278C4254F90F69614086DCA0B906</t>
+  </si>
+  <si>
+    <t>-30|0|0</t>
+  </si>
+  <si>
+    <t>100|888888</t>
+  </si>
+  <si>
+    <t>激光冰雷枪</t>
+  </si>
+  <si>
+    <t>29CD5E6145D1B05590E887A050E0D3C8</t>
+  </si>
+  <si>
+    <t>666|8888888</t>
+  </si>
+  <si>
+    <t>尖叫鸡</t>
+  </si>
+  <si>
+    <t>015C826546EBC60F95EF399D16523B78</t>
+  </si>
+  <si>
+    <t>2|2|3</t>
+  </si>
+  <si>
+    <t>888|888888888</t>
+  </si>
+  <si>
+    <t>鸡枪</t>
+  </si>
+  <si>
+    <t>5F47861B4393F17B401DE1B260C37FFF</t>
+  </si>
+  <si>
+    <t>5|-1</t>
+  </si>
+  <si>
+    <t>彩弹枪</t>
+  </si>
+  <si>
+    <t>1172035A40E88AC00E32E98A96BA38B4</t>
+  </si>
+  <si>
+    <t>20|288888</t>
+  </si>
+  <si>
+    <t>F518B8734B62A572C083A0A12C0DA023</t>
+  </si>
+  <si>
+    <t>1|-1</t>
+  </si>
+  <si>
+    <t>2A3F2A5E4DA7B3C642E5AB8389FB8D48</t>
+  </si>
+  <si>
+    <t>火枪</t>
+  </si>
+  <si>
+    <t>5EF3A3E148FA5DADA349E5A05B93D1D6</t>
+  </si>
+  <si>
+    <t>897F01494E651D7D9E00ECAD4D14C16C</t>
+  </si>
+  <si>
+    <t>小人闪电枪</t>
+  </si>
+  <si>
+    <t>9EFD21B44E4996A620BBA9964807B840</t>
+  </si>
+  <si>
+    <t>E9FC6ACE4AC66809036C0CA0E3515AC4</t>
+  </si>
+  <si>
+    <t>火炮枪</t>
+  </si>
+  <si>
+    <t>B94E161D48D474A8BAC442A20B9913C5</t>
+  </si>
+  <si>
+    <t>1DF90AAD4856CE9C07101B83DD991369</t>
+  </si>
+  <si>
+    <t>萝卜枪</t>
+  </si>
+  <si>
+    <t>AD25752D4D06791DD146D0ADC87C08C8</t>
+  </si>
+  <si>
+    <t>加特林</t>
+  </si>
+  <si>
+    <t>E9308DA44D32ECF1E19F618CFEDA57F9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,95 +715,332 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +1089,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -289,26 +1122,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -341,23 +1157,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,89 +1298,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
+    <col min="1" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="20" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="M1" s="1" t="str">
-        <v>int</v>
+    <row r="1" ht="25" customHeight="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -591,45 +1367,45 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>GUNNAME</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>GUNPREFAB</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>GUNICON</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>GUNICON_M</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>GUNLOC</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>GUNSCALE</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>IATURNICON</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <v>PRICETYPE</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <v>PRICE</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <v>FIREINTERVAL</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <v>BULLETCOUNT</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <v>HURT</v>
+    <row r="2" ht="25" customHeight="1" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -639,47 +1415,45 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="55" r="3">
-      <c r="A3" s="1" t="str">
-        <v>唯一ID</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>枪名字</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>枪预制体Guid</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>枪ICON</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>枪模型</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>枪展示位置</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>枪缩放</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <v>是否翻转ICON</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <v>0：免费
-1：金币购买|Ads
-2：ads</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>钻石|金币</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <v>发射间隔</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <v>子弹</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <v>伤害</v>
+    <row r="3" ht="55" customHeight="1" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -689,7 +1463,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="4">
+    <row r="4" ht="25" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -711,32 +1485,32 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="5">
+    <row r="5" ht="25" customHeight="1" spans="1:20">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>水枪</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <v>587777AD4056DC3AB465FBA7D3F5F7BA</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>166941</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <v>1|2|1</v>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K5" s="2">
         <v>0.2</v>
@@ -755,32 +1529,32 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="6">
+    <row r="6" ht="25" customHeight="1" spans="1:20">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>泡泡枪</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <v>0D543D5346C331F41DA890A5E6DD3DB5</v>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>155696</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>0.2</v>
@@ -799,32 +1573,32 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="7">
+    <row r="7" ht="25" customHeight="1" spans="1:20">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>霰弹枪</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <v>E3E0C2994D3518540DBB6D8C00C8AB83</v>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>226214</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <v>2|2|2</v>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K7" s="2">
         <v>0.15</v>
@@ -843,32 +1617,32 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="8">
+    <row r="8" ht="25" customHeight="1" spans="1:20">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>金枪鱼</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>5181250F44DF914A714B668F99177E3A</v>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>138213</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>0.15</v>
@@ -887,76 +1661,76 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="9">
+    <row r="9" ht="25" customHeight="1" spans="1:20">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="str">
-        <v>脉冲枪</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <v>1CD6AEAB4602DF140ACE93BD49D5CA19</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>153110</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <v>2|2.5|2</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="str">
-        <v>1|15888</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="3">
         <v>0.1</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>35</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>25</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row customHeight="true" ht="25" r="10">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:20">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="str">
-        <v>喷火枪</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <v>A469CCC84AAA873815243BB25439707C</v>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>226213</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <v>2|2|2</v>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K10" s="2">
         <v>0.1</v>
@@ -975,32 +1749,32 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="11">
+    <row r="11" ht="25" customHeight="1" spans="1:20">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>散弹喷枪</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <v>68E812DC47B714F9A2BB2ABE18304C5B</v>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>155702</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <v>2|28888</v>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <v>0.1</v>
@@ -1019,32 +1793,32 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="12">
+    <row r="12" ht="25" customHeight="1" spans="1:20">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>霰弹枪枪身</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <v>BA1BDC034FCDE8574CBBAA8C4831A950</v>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>318664</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="str">
-        <v>2|28888</v>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K12" s="2">
         <v>0.1</v>
@@ -1063,32 +1837,32 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="13">
+    <row r="13" ht="25" customHeight="1" spans="1:20">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>火箭发射器</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <v>FCFE18BE440FAEBD5AB999A222F10AA9</v>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
         <v>226826</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <v>1.5|1|1</v>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="2" t="str">
-        <v>2|28888</v>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K13" s="2">
         <v>0.2</v>
@@ -1107,25 +1881,25 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="14">
+    <row r="14" ht="25" customHeight="1" spans="1:20">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>激光幽灵枪</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <v>23240FEE4F3BD25DE8EA6DBE525B3A20</v>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>122716</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1133,8 +1907,8 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2" t="str">
-        <v>3|38888</v>
+      <c r="J14" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K14" s="2">
         <v>0.3</v>
@@ -1153,31 +1927,31 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="15">
+    <row r="15" ht="25" customHeight="1" spans="1:20">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>烟花枪</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>A830458640D6EA21FB7AEA8F7E029CB7</v>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>122726</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="2" t="str">
-        <v>3|38888</v>
+      <c r="J15" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K15" s="1">
         <v>0.3</v>
@@ -1196,32 +1970,32 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="16">
+    <row r="16" ht="25" customHeight="1" spans="1:20">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>激光烈火枪</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <v>0C7F278C4254F90F69614086DCA0B906</v>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
         <v>95676</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="2" t="str">
-        <v>4|48888</v>
+      <c r="J16" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="K16" s="2">
         <v>0.3</v>
@@ -1240,32 +2014,32 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="17">
+    <row r="17" ht="25" customHeight="1" spans="1:20">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>激光冰雷枪</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <v>29CD5E6145D1B05590E887A050E0D3C8</v>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <v>122720</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <v>4|48888</v>
+      <c r="J17" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K17" s="2">
         <v>0.3</v>
@@ -1284,25 +2058,25 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="18">
+    <row r="18" ht="25" customHeight="1" spans="1:20">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>尖叫鸡</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <v>015C826546EBC60F95EF399D16523B78</v>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>20799</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <v>2|2|3</v>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1310,8 +2084,8 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="2" t="str">
-        <v>5|58888</v>
+      <c r="J18" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -1330,7 +2104,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="19">
+    <row r="19" ht="25" customHeight="1" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1351,7 +2125,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="20">
+    <row r="20" ht="25" customHeight="1" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1372,7 +2146,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="21">
+    <row r="21" ht="25" customHeight="1" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1393,29 +2167,29 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="22">
+    <row r="22" ht="25" customHeight="1" spans="1:20">
       <c r="A22" s="2"/>
-      <c r="B22" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>5F47861B4393F17B401DE1B260C37FFF</v>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <v>20799</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G22" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="1" t="str">
-        <v>5|-1</v>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="K22" s="1">
         <v>0.3</v>
@@ -1434,29 +2208,29 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="23">
+    <row r="23" ht="25" customHeight="1" spans="1:20">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>1172035A40E88AC00E32E98A96BA38B4</v>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
         <v>87019</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G23" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="str">
-        <v>20|288888</v>
+      <c r="J23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -1475,28 +2249,28 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="24">
+    <row r="24" ht="25" customHeight="1" spans="1:20">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>F518B8734B62A572C083A0A12C0DA023</v>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>20799</v>
       </c>
-      <c r="F24" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="J24" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J24" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
@@ -1511,28 +2285,28 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="25">
+    <row r="25" ht="25" customHeight="1" spans="1:20">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="str">
-        <v>水枪</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>2A3F2A5E4DA7B3C642E5AB8389FB8D48</v>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
         <v>122716</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J25" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1545,28 +2319,28 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="26">
+    <row r="26" ht="25" customHeight="1" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="str">
-        <v>火枪</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <v>5EF3A3E148FA5DADA349E5A05B93D1D6</v>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
         <v>122726</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F26" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J26" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1579,28 +2353,28 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="27">
+    <row r="27" ht="25" customHeight="1" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="str">
-        <v>泡泡枪</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <v>897F01494E651D7D9E00ECAD4D14C16C</v>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>168811</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J27" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1613,28 +2387,28 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="28">
+    <row r="28" ht="25" customHeight="1" spans="1:20">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="str">
-        <v>小人闪电枪</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <v>9EFD21B44E4996A620BBA9964807B840</v>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <v>135222</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="J28" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J28" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1647,28 +2421,28 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="29">
+    <row r="29" ht="25" customHeight="1" spans="1:20">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="str">
-        <v>脉冲枪</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <v>E9FC6ACE4AC66809036C0CA0E3515AC4</v>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <v>153110</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J29" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1681,28 +2455,28 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="30">
+    <row r="30" ht="25" customHeight="1" spans="1:20">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="str">
-        <v>火炮枪</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>B94E161D48D474A8BAC442A20B9913C5</v>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <v>218325</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J30" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1715,28 +2489,28 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="31">
+    <row r="31" ht="25" customHeight="1" spans="1:20">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <v>1DF90AAD4856CE9C07101B83DD991369</v>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <v>87019</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J31" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1749,28 +2523,28 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="32">
+    <row r="32" ht="25" customHeight="1" spans="1:20">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="str">
-        <v>萝卜枪</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <v>AD25752D4D06791DD146D0ADC87C08C8</v>
+      <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <v>174519</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J32" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1783,28 +2557,28 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="33">
+    <row r="33" ht="25" customHeight="1" spans="1:20">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="str">
-        <v>加特林</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <v>E9308DA44D32ECF1E19F618CFEDA57F9</v>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
         <v>223966</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J33" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1818,6 +2592,7 @@
       <c r="T33" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/middle-to-gun/Excel/GUN_步枪表.xlsx
+++ b/middle-to-gun/Excel/GUN_步枪表.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,92 +27,689 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>GUNNAME</t>
+  </si>
+  <si>
+    <t>GUNPREFAB</t>
+  </si>
+  <si>
+    <t>GUNICON</t>
+  </si>
+  <si>
+    <t>GUNICON_M</t>
+  </si>
+  <si>
+    <t>GUNLOC</t>
+  </si>
+  <si>
+    <t>GUNSCALE</t>
+  </si>
+  <si>
+    <t>IATURNICON</t>
+  </si>
+  <si>
+    <t>PRICETYPE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>FIREINTERVAL</t>
+  </si>
+  <si>
+    <t>BULLETCOUNT</t>
+  </si>
+  <si>
+    <t>HURT</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>枪名字</t>
+  </si>
+  <si>
+    <t>枪预制体Guid</t>
+  </si>
+  <si>
+    <t>枪ICON</t>
+  </si>
+  <si>
+    <t>枪模型</t>
+  </si>
+  <si>
+    <t>枪展示位置</t>
+  </si>
+  <si>
+    <t>枪缩放</t>
+  </si>
+  <si>
+    <t>是否翻转ICON</t>
+  </si>
+  <si>
+    <t>0：免费
+1：金币购买|Ads
+2：ads</t>
+  </si>
+  <si>
+    <t>钻石|金币</t>
+  </si>
+  <si>
+    <t>发射间隔</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>水枪</t>
+  </si>
+  <si>
+    <t>587777AD4056DC3AB465FBA7D3F5F7BA</t>
+  </si>
+  <si>
+    <t>0|0|0</t>
+  </si>
+  <si>
+    <t>1|2|1</t>
+  </si>
+  <si>
+    <t>1|15888</t>
+  </si>
+  <si>
+    <t>泡泡枪</t>
+  </si>
+  <si>
+    <t>0D543D5346C331F41DA890A5E6DD3DB5</t>
+  </si>
+  <si>
+    <t>1|1|1</t>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>E3E0C2994D3518540DBB6D8C00C8AB83</t>
+  </si>
+  <si>
+    <t>2|2|2</t>
+  </si>
+  <si>
+    <t>金枪鱼</t>
+  </si>
+  <si>
+    <t>5181250F44DF914A714B668F99177E3A</t>
+  </si>
+  <si>
+    <t>脉冲枪</t>
+  </si>
+  <si>
+    <t>1CD6AEAB4602DF140ACE93BD49D5CA19</t>
+  </si>
+  <si>
+    <t>2|2.5|2</t>
+  </si>
+  <si>
+    <t>喷火枪</t>
+  </si>
+  <si>
+    <t>A469CCC84AAA873815243BB25439707C</t>
+  </si>
+  <si>
+    <t>散弹喷枪</t>
+  </si>
+  <si>
+    <t>68E812DC47B714F9A2BB2ABE18304C5B</t>
+  </si>
+  <si>
+    <t>2|28888</t>
+  </si>
+  <si>
+    <t>霰弹枪枪身</t>
+  </si>
+  <si>
+    <t>BA1BDC034FCDE8574CBBAA8C4831A950</t>
+  </si>
+  <si>
+    <t>火箭发射器</t>
+  </si>
+  <si>
+    <t>FCFE18BE440FAEBD5AB999A222F10AA9</t>
+  </si>
+  <si>
+    <t>1.5|1|1</t>
+  </si>
+  <si>
+    <t>激光幽灵枪</t>
+  </si>
+  <si>
+    <t>23240FEE4F3BD25DE8EA6DBE525B3A20</t>
+  </si>
+  <si>
+    <t>3|38888</t>
+  </si>
+  <si>
+    <t>烟花枪</t>
+  </si>
+  <si>
+    <t>A830458640D6EA21FB7AEA8F7E029CB7</t>
+  </si>
+  <si>
+    <t>10|3888888</t>
+  </si>
+  <si>
+    <t>激光烈火枪</t>
+  </si>
+  <si>
+    <t>0C7F278C4254F90F69614086DCA0B906</t>
+  </si>
+  <si>
+    <t>-30|0|0</t>
+  </si>
+  <si>
+    <t>30|4888888</t>
+  </si>
+  <si>
+    <t>激光冰雷枪</t>
+  </si>
+  <si>
+    <t>29CD5E6145D1B05590E887A050E0D3C8</t>
+  </si>
+  <si>
+    <t>50|4888888</t>
+  </si>
+  <si>
+    <t>尖叫鸡</t>
+  </si>
+  <si>
+    <t>015C826546EBC60F95EF399D16523B78</t>
+  </si>
+  <si>
+    <t>2|2|3</t>
+  </si>
+  <si>
+    <t>888|58888888</t>
+  </si>
+  <si>
+    <t>鸡枪</t>
+  </si>
+  <si>
+    <t>5F47861B4393F17B401DE1B260C37FFF</t>
+  </si>
+  <si>
+    <t>5|-1</t>
+  </si>
+  <si>
+    <t>彩弹枪</t>
+  </si>
+  <si>
+    <t>1172035A40E88AC00E32E98A96BA38B4</t>
+  </si>
+  <si>
+    <t>20|288888</t>
+  </si>
+  <si>
+    <t>F518B8734B62A572C083A0A12C0DA023</t>
+  </si>
+  <si>
+    <t>1|-1</t>
+  </si>
+  <si>
+    <t>2A3F2A5E4DA7B3C642E5AB8389FB8D48</t>
+  </si>
+  <si>
+    <t>火枪</t>
+  </si>
+  <si>
+    <t>5EF3A3E148FA5DADA349E5A05B93D1D6</t>
+  </si>
+  <si>
+    <t>897F01494E651D7D9E00ECAD4D14C16C</t>
+  </si>
+  <si>
+    <t>小人闪电枪</t>
+  </si>
+  <si>
+    <t>9EFD21B44E4996A620BBA9964807B840</t>
+  </si>
+  <si>
+    <t>E9FC6ACE4AC66809036C0CA0E3515AC4</t>
+  </si>
+  <si>
+    <t>火炮枪</t>
+  </si>
+  <si>
+    <t>B94E161D48D474A8BAC442A20B9913C5</t>
+  </si>
+  <si>
+    <t>1DF90AAD4856CE9C07101B83DD991369</t>
+  </si>
+  <si>
+    <t>萝卜枪</t>
+  </si>
+  <si>
+    <t>AD25752D4D06791DD146D0ADC87C08C8</t>
+  </si>
+  <si>
+    <t>加特林</t>
+  </si>
+  <si>
+    <t>E9308DA44D32ECF1E19F618CFEDA57F9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,95 +718,332 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +1092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -289,26 +1125,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -341,23 +1160,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,89 +1301,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
+    <col min="1" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="20" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="M1" s="1" t="str">
-        <v>int</v>
+    <row r="1" ht="25" customHeight="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -591,45 +1370,45 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>GUNNAME</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>GUNPREFAB</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>GUNICON</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>GUNICON_M</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>GUNLOC</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>GUNSCALE</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>IATURNICON</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <v>PRICETYPE</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <v>PRICE</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <v>FIREINTERVAL</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <v>BULLETCOUNT</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <v>HURT</v>
+    <row r="2" ht="25" customHeight="1" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -639,47 +1418,45 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="55" r="3">
-      <c r="A3" s="1" t="str">
-        <v>唯一ID</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>枪名字</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>枪预制体Guid</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>枪ICON</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>枪模型</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>枪展示位置</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>枪缩放</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <v>是否翻转ICON</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <v>0：免费
-1：金币购买|Ads
-2：ads</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>钻石|金币</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <v>发射间隔</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <v>子弹</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <v>伤害</v>
+    <row r="3" ht="55" customHeight="1" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -689,7 +1466,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="4">
+    <row r="4" ht="25" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -711,32 +1488,32 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="5">
+    <row r="5" ht="25" customHeight="1" spans="1:20">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>水枪</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <v>587777AD4056DC3AB465FBA7D3F5F7BA</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>166941</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <v>1|2|1</v>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K5" s="2">
         <v>0.2</v>
@@ -755,32 +1532,32 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="6">
+    <row r="6" ht="25" customHeight="1" spans="1:20">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>泡泡枪</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <v>0D543D5346C331F41DA890A5E6DD3DB5</v>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>155696</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>0.2</v>
@@ -799,32 +1576,32 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="7">
+    <row r="7" ht="25" customHeight="1" spans="1:20">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>霰弹枪</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <v>E3E0C2994D3518540DBB6D8C00C8AB83</v>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>226214</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <v>2|2|2</v>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K7" s="2">
         <v>0.15</v>
@@ -843,32 +1620,32 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="8">
+    <row r="8" ht="25" customHeight="1" spans="1:20">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>金枪鱼</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>5181250F44DF914A714B668F99177E3A</v>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>138213</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>0.15</v>
@@ -887,76 +1664,76 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="9">
+    <row r="9" ht="25" customHeight="1" spans="1:20">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="str">
-        <v>脉冲枪</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <v>1CD6AEAB4602DF140ACE93BD49D5CA19</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>153110</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <v>2|2.5|2</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="str">
-        <v>1|15888</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="3">
         <v>0.1</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>35</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>25</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row customHeight="true" ht="25" r="10">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:20">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="str">
-        <v>喷火枪</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <v>A469CCC84AAA873815243BB25439707C</v>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>226213</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <v>2|2|2</v>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K10" s="2">
         <v>0.1</v>
@@ -975,32 +1752,32 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="11">
+    <row r="11" ht="25" customHeight="1" spans="1:20">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>散弹喷枪</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <v>68E812DC47B714F9A2BB2ABE18304C5B</v>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>155702</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <v>2|28888</v>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <v>0.1</v>
@@ -1019,32 +1796,32 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="12">
+    <row r="12" ht="25" customHeight="1" spans="1:20">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>霰弹枪枪身</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <v>BA1BDC034FCDE8574CBBAA8C4831A950</v>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>318664</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="str">
-        <v>2|28888</v>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K12" s="2">
         <v>0.1</v>
@@ -1063,32 +1840,32 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="13">
+    <row r="13" ht="25" customHeight="1" spans="1:20">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>火箭发射器</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <v>FCFE18BE440FAEBD5AB999A222F10AA9</v>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
         <v>226826</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <v>1.5|1|1</v>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="2" t="str">
-        <v>2|28888</v>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K13" s="2">
         <v>0.2</v>
@@ -1107,25 +1884,25 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="14">
+    <row r="14" ht="25" customHeight="1" spans="1:20">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>激光幽灵枪</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <v>23240FEE4F3BD25DE8EA6DBE525B3A20</v>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>122716</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1133,8 +1910,8 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2" t="str">
-        <v>3|38888</v>
+      <c r="J14" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K14" s="2">
         <v>0.3</v>
@@ -1153,31 +1930,31 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="15">
+    <row r="15" ht="25" customHeight="1" spans="1:20">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>烟花枪</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>A830458640D6EA21FB7AEA8F7E029CB7</v>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>122726</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="2" t="str">
-        <v>3|38888</v>
+      <c r="J15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K15" s="1">
         <v>0.3</v>
@@ -1196,32 +1973,32 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="16">
+    <row r="16" ht="25" customHeight="1" spans="1:20">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>激光烈火枪</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <v>0C7F278C4254F90F69614086DCA0B906</v>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
         <v>95676</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="2" t="str">
-        <v>4|48888</v>
+      <c r="J16" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K16" s="2">
         <v>0.3</v>
@@ -1240,32 +2017,32 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="17">
+    <row r="17" ht="25" customHeight="1" spans="1:20">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>激光冰雷枪</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <v>29CD5E6145D1B05590E887A050E0D3C8</v>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <v>122720</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <v>4|48888</v>
+      <c r="J17" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="K17" s="2">
         <v>0.3</v>
@@ -1284,25 +2061,25 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="18">
+    <row r="18" ht="25" customHeight="1" spans="1:20">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>尖叫鸡</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <v>015C826546EBC60F95EF399D16523B78</v>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>20799</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <v>2|2|3</v>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1310,8 +2087,8 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="2" t="str">
-        <v>5|58888</v>
+      <c r="J18" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -1330,7 +2107,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="19">
+    <row r="19" ht="25" customHeight="1" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1351,7 +2128,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="20">
+    <row r="20" ht="25" customHeight="1" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1372,7 +2149,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="21">
+    <row r="21" ht="25" customHeight="1" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1393,29 +2170,29 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="22">
+    <row r="22" ht="25" customHeight="1" spans="1:20">
       <c r="A22" s="2"/>
-      <c r="B22" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>5F47861B4393F17B401DE1B260C37FFF</v>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <v>20799</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G22" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="1" t="str">
-        <v>5|-1</v>
+      <c r="J22" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="K22" s="1">
         <v>0.3</v>
@@ -1434,29 +2211,29 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="23">
+    <row r="23" ht="25" customHeight="1" spans="1:20">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>1172035A40E88AC00E32E98A96BA38B4</v>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
         <v>87019</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G23" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="str">
-        <v>20|288888</v>
+      <c r="J23" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -1475,28 +2252,28 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="24">
+    <row r="24" ht="25" customHeight="1" spans="1:20">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>F518B8734B62A572C083A0A12C0DA023</v>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>20799</v>
       </c>
-      <c r="F24" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="J24" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J24" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
@@ -1511,28 +2288,28 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="25">
+    <row r="25" ht="25" customHeight="1" spans="1:20">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="str">
-        <v>水枪</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>2A3F2A5E4DA7B3C642E5AB8389FB8D48</v>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
         <v>122716</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J25" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1545,28 +2322,28 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="26">
+    <row r="26" ht="25" customHeight="1" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="str">
-        <v>火枪</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <v>5EF3A3E148FA5DADA349E5A05B93D1D6</v>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
         <v>122726</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J26" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1579,28 +2356,28 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="27">
+    <row r="27" ht="25" customHeight="1" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="str">
-        <v>泡泡枪</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <v>897F01494E651D7D9E00ECAD4D14C16C</v>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>168811</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J27" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1613,28 +2390,28 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="28">
+    <row r="28" ht="25" customHeight="1" spans="1:20">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="str">
-        <v>小人闪电枪</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <v>9EFD21B44E4996A620BBA9964807B840</v>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <v>135222</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="J28" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1647,28 +2424,28 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="29">
+    <row r="29" ht="25" customHeight="1" spans="1:20">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="str">
-        <v>脉冲枪</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <v>E9FC6ACE4AC66809036C0CA0E3515AC4</v>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <v>153110</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J29" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1681,28 +2458,28 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="30">
+    <row r="30" ht="25" customHeight="1" spans="1:20">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="str">
-        <v>火炮枪</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>B94E161D48D474A8BAC442A20B9913C5</v>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <v>218325</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J30" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1715,28 +2492,28 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="31">
+    <row r="31" ht="25" customHeight="1" spans="1:20">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <v>1DF90AAD4856CE9C07101B83DD991369</v>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <v>87019</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J31" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1749,28 +2526,28 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="32">
+    <row r="32" ht="25" customHeight="1" spans="1:20">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="str">
-        <v>萝卜枪</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <v>AD25752D4D06791DD146D0ADC87C08C8</v>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <v>174519</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J32" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1783,28 +2560,28 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="33">
+    <row r="33" ht="25" customHeight="1" spans="1:20">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="str">
-        <v>加特林</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <v>E9308DA44D32ECF1E19F618CFEDA57F9</v>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
         <v>223966</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J33" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1818,6 +2595,7 @@
       <c r="T33" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/middle-to-gun/Excel/GUN_步枪表.xlsx
+++ b/middle-to-gun/Excel/GUN_步枪表.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,92 +27,689 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>GUNNAME</t>
+  </si>
+  <si>
+    <t>GUNPREFAB</t>
+  </si>
+  <si>
+    <t>GUNICON</t>
+  </si>
+  <si>
+    <t>GUNICON_M</t>
+  </si>
+  <si>
+    <t>GUNLOC</t>
+  </si>
+  <si>
+    <t>GUNSCALE</t>
+  </si>
+  <si>
+    <t>IATURNICON</t>
+  </si>
+  <si>
+    <t>PRICETYPE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>FIREINTERVAL</t>
+  </si>
+  <si>
+    <t>BULLETCOUNT</t>
+  </si>
+  <si>
+    <t>HURT</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>枪名字</t>
+  </si>
+  <si>
+    <t>枪预制体Guid</t>
+  </si>
+  <si>
+    <t>枪ICON</t>
+  </si>
+  <si>
+    <t>枪模型</t>
+  </si>
+  <si>
+    <t>枪展示位置</t>
+  </si>
+  <si>
+    <t>枪缩放</t>
+  </si>
+  <si>
+    <t>是否翻转ICON</t>
+  </si>
+  <si>
+    <t>0：免费
+1：金币购买|Ads
+2：ads</t>
+  </si>
+  <si>
+    <t>钻石|金币</t>
+  </si>
+  <si>
+    <t>发射间隔</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>水枪</t>
+  </si>
+  <si>
+    <t>587777AD4056DC3AB465FBA7D3F5F7BA</t>
+  </si>
+  <si>
+    <t>0|0|0</t>
+  </si>
+  <si>
+    <t>1|2|1</t>
+  </si>
+  <si>
+    <t>1|15888</t>
+  </si>
+  <si>
+    <t>泡泡枪</t>
+  </si>
+  <si>
+    <t>0D543D5346C331F41DA890A5E6DD3DB5</t>
+  </si>
+  <si>
+    <t>1|1|1</t>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>E3E0C2994D3518540DBB6D8C00C8AB83</t>
+  </si>
+  <si>
+    <t>2|2|2</t>
+  </si>
+  <si>
+    <t>金枪鱼</t>
+  </si>
+  <si>
+    <t>5181250F44DF914A714B668F99177E3A</t>
+  </si>
+  <si>
+    <t>脉冲枪</t>
+  </si>
+  <si>
+    <t>1CD6AEAB4602DF140ACE93BD49D5CA19</t>
+  </si>
+  <si>
+    <t>2|2.5|2</t>
+  </si>
+  <si>
+    <t>喷火枪</t>
+  </si>
+  <si>
+    <t>A469CCC84AAA873815243BB25439707C</t>
+  </si>
+  <si>
+    <t>散弹喷枪</t>
+  </si>
+  <si>
+    <t>68E812DC47B714F9A2BB2ABE18304C5B</t>
+  </si>
+  <si>
+    <t>2|28888</t>
+  </si>
+  <si>
+    <t>霰弹枪枪身</t>
+  </si>
+  <si>
+    <t>BA1BDC034FCDE8574CBBAA8C4831A950</t>
+  </si>
+  <si>
+    <t>火箭发射器</t>
+  </si>
+  <si>
+    <t>FCFE18BE440FAEBD5AB999A222F10AA9</t>
+  </si>
+  <si>
+    <t>1.5|1|1</t>
+  </si>
+  <si>
+    <t>激光幽灵枪</t>
+  </si>
+  <si>
+    <t>23240FEE4F3BD25DE8EA6DBE525B3A20</t>
+  </si>
+  <si>
+    <t>8|3888888</t>
+  </si>
+  <si>
+    <t>烟花枪</t>
+  </si>
+  <si>
+    <t>A830458640D6EA21FB7AEA8F7E029CB7</t>
+  </si>
+  <si>
+    <t>28|3888888</t>
+  </si>
+  <si>
+    <t>激光烈火枪</t>
+  </si>
+  <si>
+    <t>0C7F278C4254F90F69614086DCA0B906</t>
+  </si>
+  <si>
+    <t>-30|0|0</t>
+  </si>
+  <si>
+    <t>88|4888888</t>
+  </si>
+  <si>
+    <t>激光冰雷枪</t>
+  </si>
+  <si>
+    <t>29CD5E6145D1B05590E887A050E0D3C8</t>
+  </si>
+  <si>
+    <t>88|1488888</t>
+  </si>
+  <si>
+    <t>尖叫鸡</t>
+  </si>
+  <si>
+    <t>015C826546EBC60F95EF399D16523B78</t>
+  </si>
+  <si>
+    <t>2|2|3</t>
+  </si>
+  <si>
+    <t>888|1588888</t>
+  </si>
+  <si>
+    <t>鸡枪</t>
+  </si>
+  <si>
+    <t>5F47861B4393F17B401DE1B260C37FFF</t>
+  </si>
+  <si>
+    <t>5|-1</t>
+  </si>
+  <si>
+    <t>彩弹枪</t>
+  </si>
+  <si>
+    <t>1172035A40E88AC00E32E98A96BA38B4</t>
+  </si>
+  <si>
+    <t>20|288888</t>
+  </si>
+  <si>
+    <t>F518B8734B62A572C083A0A12C0DA023</t>
+  </si>
+  <si>
+    <t>1|-1</t>
+  </si>
+  <si>
+    <t>2A3F2A5E4DA7B3C642E5AB8389FB8D48</t>
+  </si>
+  <si>
+    <t>火枪</t>
+  </si>
+  <si>
+    <t>5EF3A3E148FA5DADA349E5A05B93D1D6</t>
+  </si>
+  <si>
+    <t>897F01494E651D7D9E00ECAD4D14C16C</t>
+  </si>
+  <si>
+    <t>小人闪电枪</t>
+  </si>
+  <si>
+    <t>9EFD21B44E4996A620BBA9964807B840</t>
+  </si>
+  <si>
+    <t>E9FC6ACE4AC66809036C0CA0E3515AC4</t>
+  </si>
+  <si>
+    <t>火炮枪</t>
+  </si>
+  <si>
+    <t>B94E161D48D474A8BAC442A20B9913C5</t>
+  </si>
+  <si>
+    <t>1DF90AAD4856CE9C07101B83DD991369</t>
+  </si>
+  <si>
+    <t>萝卜枪</t>
+  </si>
+  <si>
+    <t>AD25752D4D06791DD146D0ADC87C08C8</t>
+  </si>
+  <si>
+    <t>加特林</t>
+  </si>
+  <si>
+    <t>E9308DA44D32ECF1E19F618CFEDA57F9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,95 +718,332 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +1092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -289,26 +1125,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -341,23 +1160,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,89 +1301,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
+    <col min="1" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="20" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="M1" s="1" t="str">
-        <v>int</v>
+    <row r="1" ht="25" customHeight="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -591,45 +1370,45 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>GUNNAME</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>GUNPREFAB</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>GUNICON</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>GUNICON_M</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>GUNLOC</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>GUNSCALE</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>IATURNICON</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <v>PRICETYPE</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <v>PRICE</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <v>FIREINTERVAL</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <v>BULLETCOUNT</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <v>HURT</v>
+    <row r="2" ht="25" customHeight="1" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -639,47 +1418,45 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="55" r="3">
-      <c r="A3" s="1" t="str">
-        <v>唯一ID</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>枪名字</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>枪预制体Guid</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>枪ICON</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>枪模型</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>枪展示位置</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>枪缩放</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <v>是否翻转ICON</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <v>0：免费
-1：金币购买|Ads
-2：ads</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>钻石|金币</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <v>发射间隔</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <v>子弹</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <v>伤害</v>
+    <row r="3" ht="55" customHeight="1" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -689,7 +1466,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="4">
+    <row r="4" ht="25" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -711,32 +1488,32 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="5">
+    <row r="5" ht="25" customHeight="1" spans="1:20">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>水枪</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <v>587777AD4056DC3AB465FBA7D3F5F7BA</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>166941</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <v>1|2|1</v>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K5" s="2">
         <v>0.2</v>
@@ -755,32 +1532,32 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="6">
+    <row r="6" ht="25" customHeight="1" spans="1:20">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>泡泡枪</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <v>0D543D5346C331F41DA890A5E6DD3DB5</v>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>155696</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>0.2</v>
@@ -799,32 +1576,32 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="7">
+    <row r="7" ht="25" customHeight="1" spans="1:20">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>霰弹枪</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <v>E3E0C2994D3518540DBB6D8C00C8AB83</v>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>226214</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <v>2|2|2</v>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K7" s="2">
         <v>0.15</v>
@@ -843,32 +1620,32 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="8">
+    <row r="8" ht="25" customHeight="1" spans="1:20">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>金枪鱼</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>5181250F44DF914A714B668F99177E3A</v>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>138213</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>0.15</v>
@@ -887,76 +1664,76 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="9">
+    <row r="9" ht="25" customHeight="1" spans="1:20">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="str">
-        <v>脉冲枪</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <v>1CD6AEAB4602DF140ACE93BD49D5CA19</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>153110</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <v>2|2.5|2</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="str">
-        <v>1|15888</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="3">
         <v>0.1</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>35</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>25</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row customHeight="true" ht="25" r="10">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:20">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="str">
-        <v>喷火枪</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <v>A469CCC84AAA873815243BB25439707C</v>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>226213</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <v>2|2|2</v>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K10" s="2">
         <v>0.1</v>
@@ -975,32 +1752,32 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="11">
+    <row r="11" ht="25" customHeight="1" spans="1:20">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>散弹喷枪</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <v>68E812DC47B714F9A2BB2ABE18304C5B</v>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>155702</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <v>2|28888</v>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <v>0.1</v>
@@ -1019,32 +1796,32 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="12">
+    <row r="12" ht="25" customHeight="1" spans="1:20">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>霰弹枪枪身</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <v>BA1BDC034FCDE8574CBBAA8C4831A950</v>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>318664</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="str">
-        <v>2|28888</v>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K12" s="2">
         <v>0.1</v>
@@ -1063,32 +1840,32 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="13">
+    <row r="13" ht="25" customHeight="1" spans="1:20">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>火箭发射器</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <v>FCFE18BE440FAEBD5AB999A222F10AA9</v>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
         <v>226826</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <v>1.5|1|1</v>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="2" t="str">
-        <v>2|28888</v>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K13" s="2">
         <v>0.2</v>
@@ -1107,25 +1884,25 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="14">
+    <row r="14" ht="25" customHeight="1" spans="1:20">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>激光幽灵枪</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <v>23240FEE4F3BD25DE8EA6DBE525B3A20</v>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>122716</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1133,8 +1910,8 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2" t="str">
-        <v>3|38888</v>
+      <c r="J14" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K14" s="2">
         <v>0.3</v>
@@ -1153,31 +1930,31 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="15">
+    <row r="15" ht="25" customHeight="1" spans="1:20">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>烟花枪</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>A830458640D6EA21FB7AEA8F7E029CB7</v>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>122726</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="2" t="str">
-        <v>3|38888</v>
+      <c r="J15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K15" s="1">
         <v>0.3</v>
@@ -1196,32 +1973,32 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="16">
+    <row r="16" ht="25" customHeight="1" spans="1:20">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>激光烈火枪</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <v>0C7F278C4254F90F69614086DCA0B906</v>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
         <v>95676</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="2" t="str">
-        <v>4|48888</v>
+      <c r="J16" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K16" s="2">
         <v>0.3</v>
@@ -1240,32 +2017,32 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="17">
+    <row r="17" ht="25" customHeight="1" spans="1:20">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>激光冰雷枪</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <v>29CD5E6145D1B05590E887A050E0D3C8</v>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <v>122720</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <v>4|48888</v>
+      <c r="J17" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="K17" s="2">
         <v>0.3</v>
@@ -1284,25 +2061,25 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="18">
+    <row r="18" ht="25" customHeight="1" spans="1:20">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>尖叫鸡</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <v>015C826546EBC60F95EF399D16523B78</v>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>20799</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <v>2|2|3</v>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1310,8 +2087,8 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="2" t="str">
-        <v>5|58888</v>
+      <c r="J18" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -1330,7 +2107,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row customHeight="true" ht="25" r="19">
+    <row r="19" ht="25" customHeight="1" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1351,7 +2128,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="20">
+    <row r="20" ht="25" customHeight="1" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1372,7 +2149,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="21">
+    <row r="21" ht="25" customHeight="1" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1393,29 +2170,29 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="22">
+    <row r="22" ht="25" customHeight="1" spans="1:20">
       <c r="A22" s="2"/>
-      <c r="B22" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>5F47861B4393F17B401DE1B260C37FFF</v>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <v>20799</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G22" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="1" t="str">
-        <v>5|-1</v>
+      <c r="J22" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="K22" s="1">
         <v>0.3</v>
@@ -1434,29 +2211,29 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="23">
+    <row r="23" ht="25" customHeight="1" spans="1:20">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>1172035A40E88AC00E32E98A96BA38B4</v>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
         <v>87019</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G23" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="str">
-        <v>20|288888</v>
+      <c r="J23" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -1475,28 +2252,28 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="24">
+    <row r="24" ht="25" customHeight="1" spans="1:20">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>F518B8734B62A572C083A0A12C0DA023</v>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>20799</v>
       </c>
-      <c r="F24" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="J24" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J24" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
@@ -1511,28 +2288,28 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="25">
+    <row r="25" ht="25" customHeight="1" spans="1:20">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="str">
-        <v>水枪</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>2A3F2A5E4DA7B3C642E5AB8389FB8D48</v>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
         <v>122716</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J25" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1545,28 +2322,28 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="26">
+    <row r="26" ht="25" customHeight="1" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="str">
-        <v>火枪</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <v>5EF3A3E148FA5DADA349E5A05B93D1D6</v>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
         <v>122726</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J26" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1579,28 +2356,28 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="27">
+    <row r="27" ht="25" customHeight="1" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="str">
-        <v>泡泡枪</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <v>897F01494E651D7D9E00ECAD4D14C16C</v>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>168811</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J27" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1613,28 +2390,28 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="28">
+    <row r="28" ht="25" customHeight="1" spans="1:20">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="str">
-        <v>小人闪电枪</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <v>9EFD21B44E4996A620BBA9964807B840</v>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <v>135222</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="J28" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1647,28 +2424,28 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="29">
+    <row r="29" ht="25" customHeight="1" spans="1:20">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="str">
-        <v>脉冲枪</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <v>E9FC6ACE4AC66809036C0CA0E3515AC4</v>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <v>153110</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J29" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1681,28 +2458,28 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="30">
+    <row r="30" ht="25" customHeight="1" spans="1:20">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="str">
-        <v>火炮枪</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>B94E161D48D474A8BAC442A20B9913C5</v>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <v>218325</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J30" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1715,28 +2492,28 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="31">
+    <row r="31" ht="25" customHeight="1" spans="1:20">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <v>1DF90AAD4856CE9C07101B83DD991369</v>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <v>87019</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J31" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1749,28 +2526,28 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="32">
+    <row r="32" ht="25" customHeight="1" spans="1:20">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="str">
-        <v>萝卜枪</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <v>AD25752D4D06791DD146D0ADC87C08C8</v>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <v>174519</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J32" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1783,28 +2560,28 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="33">
+    <row r="33" ht="25" customHeight="1" spans="1:20">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="str">
-        <v>加特林</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <v>E9308DA44D32ECF1E19F618CFEDA57F9</v>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
         <v>223966</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J33" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1818,6 +2595,7 @@
       <c r="T33" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/middle-to-gun/Excel/GUN_步枪表.xlsx
+++ b/middle-to-gun/Excel/GUN_步枪表.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,92 +27,710 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>GUNNAME</t>
+  </si>
+  <si>
+    <t>GUNPREFAB</t>
+  </si>
+  <si>
+    <t>GUNICON</t>
+  </si>
+  <si>
+    <t>GUNICON_M</t>
+  </si>
+  <si>
+    <t>GUNLOC</t>
+  </si>
+  <si>
+    <t>GUNSCALE</t>
+  </si>
+  <si>
+    <t>IATURNICON</t>
+  </si>
+  <si>
+    <t>PRICETYPE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>FIREINTERVAL</t>
+  </si>
+  <si>
+    <t>BULLETCOUNT</t>
+  </si>
+  <si>
+    <t>HURT</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>枪名字</t>
+  </si>
+  <si>
+    <t>枪预制体Guid</t>
+  </si>
+  <si>
+    <t>枪ICON</t>
+  </si>
+  <si>
+    <t>枪模型</t>
+  </si>
+  <si>
+    <t>枪展示位置</t>
+  </si>
+  <si>
+    <t>枪缩放</t>
+  </si>
+  <si>
+    <t>是否翻转ICON</t>
+  </si>
+  <si>
+    <t>0：免费
+1：金币购买|Ads
+2：ads</t>
+  </si>
+  <si>
+    <t>钻石|金币</t>
+  </si>
+  <si>
+    <t>发射间隔</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>M4A1卡宾枪</t>
+  </si>
+  <si>
+    <t>587777AD4056DC3AB465FBA7D3F5F7BA</t>
+  </si>
+  <si>
+    <t>-20|0|0</t>
+  </si>
+  <si>
+    <t>1|1|1</t>
+  </si>
+  <si>
+    <t>1|15888</t>
+  </si>
+  <si>
+    <t>AK47自动步枪</t>
+  </si>
+  <si>
+    <t>0D543D5346C331F41DA890A5E6DD3DB5</t>
+  </si>
+  <si>
+    <t>1|18888</t>
+  </si>
+  <si>
+    <t>QBZ95式突击步枪</t>
+  </si>
+  <si>
+    <t>E3E0C2994D3518540DBB6D8C00C8AB83</t>
+  </si>
+  <si>
+    <t>0|0|0</t>
+  </si>
+  <si>
+    <t>2|35888</t>
+  </si>
+  <si>
+    <t>SCAR突击步枪</t>
+  </si>
+  <si>
+    <t>5181250F44DF914A714B668F99177E3A</t>
+  </si>
+  <si>
+    <t>-10|0|0</t>
+  </si>
+  <si>
+    <t>3|48888</t>
+  </si>
+  <si>
+    <t>突击步枪</t>
+  </si>
+  <si>
+    <t>1CD6AEAB4602DF140ACE93BD49D5CA19</t>
+  </si>
+  <si>
+    <t>4|58888</t>
+  </si>
+  <si>
+    <t>MP5冲锋枪</t>
+  </si>
+  <si>
+    <t>A469CCC84AAA873815243BB25439707C</t>
+  </si>
+  <si>
+    <t>MP7冲锋枪</t>
+  </si>
+  <si>
+    <t>68E812DC47B714F9A2BB2ABE18304C5B</t>
+  </si>
+  <si>
+    <t>-5|0|0</t>
+  </si>
+  <si>
+    <t>P90冲锋枪</t>
+  </si>
+  <si>
+    <t>BA1BDC034FCDE8574CBBAA8C4831A950</t>
+  </si>
+  <si>
+    <t>10|0|0</t>
+  </si>
+  <si>
+    <t>5|68888</t>
+  </si>
+  <si>
+    <t>M249机枪</t>
+  </si>
+  <si>
+    <t>FCFE18BE440FAEBD5AB999A222F10AA9</t>
+  </si>
+  <si>
+    <t>5|78888</t>
+  </si>
+  <si>
+    <t>激光幽灵枪</t>
+  </si>
+  <si>
+    <t>23240FEE4F3BD25DE8EA6DBE525B3A20</t>
+  </si>
+  <si>
+    <t>88|13888888</t>
+  </si>
+  <si>
+    <t>烟花枪</t>
+  </si>
+  <si>
+    <t>A830458640D6EA21FB7AEA8F7E029CB7</t>
+  </si>
+  <si>
+    <t>288|18858888</t>
+  </si>
+  <si>
+    <t>激光烈火枪</t>
+  </si>
+  <si>
+    <t>0C7F278C4254F90F69614086DCA0B906</t>
+  </si>
+  <si>
+    <t>-30|0|0</t>
+  </si>
+  <si>
+    <t>588|18888888</t>
+  </si>
+  <si>
+    <t>激光冰雷枪</t>
+  </si>
+  <si>
+    <t>29CD5E6145D1B05590E887A050E0D3C8</t>
+  </si>
+  <si>
+    <t>888|20888888</t>
+  </si>
+  <si>
+    <t>激光巴雷特</t>
+  </si>
+  <si>
+    <t>015C826546EBC60F95EF399D16523B78</t>
+  </si>
+  <si>
+    <t>1688|38888888</t>
+  </si>
+  <si>
+    <t>鸡枪</t>
+  </si>
+  <si>
+    <t>5F47861B4393F17B401DE1B260C37FFF</t>
+  </si>
+  <si>
+    <t>5|-1</t>
+  </si>
+  <si>
+    <t>彩弹枪</t>
+  </si>
+  <si>
+    <t>1172035A40E88AC00E32E98A96BA38B4</t>
+  </si>
+  <si>
+    <t>20|288888</t>
+  </si>
+  <si>
+    <t>F518B8734B62A572C083A0A12C0DA023</t>
+  </si>
+  <si>
+    <t>1|-1</t>
+  </si>
+  <si>
+    <t>水枪</t>
+  </si>
+  <si>
+    <t>2A3F2A5E4DA7B3C642E5AB8389FB8D48</t>
+  </si>
+  <si>
+    <t>火枪</t>
+  </si>
+  <si>
+    <t>5EF3A3E148FA5DADA349E5A05B93D1D6</t>
+  </si>
+  <si>
+    <t>泡泡枪</t>
+  </si>
+  <si>
+    <t>897F01494E651D7D9E00ECAD4D14C16C</t>
+  </si>
+  <si>
+    <t>小人闪电枪</t>
+  </si>
+  <si>
+    <t>9EFD21B44E4996A620BBA9964807B840</t>
+  </si>
+  <si>
+    <t>脉冲枪</t>
+  </si>
+  <si>
+    <t>E9FC6ACE4AC66809036C0CA0E3515AC4</t>
+  </si>
+  <si>
+    <t>火炮枪</t>
+  </si>
+  <si>
+    <t>B94E161D48D474A8BAC442A20B9913C5</t>
+  </si>
+  <si>
+    <t>1DF90AAD4856CE9C07101B83DD991369</t>
+  </si>
+  <si>
+    <t>萝卜枪</t>
+  </si>
+  <si>
+    <t>AD25752D4D06791DD146D0ADC87C08C8</t>
+  </si>
+  <si>
+    <t>加特林</t>
+  </si>
+  <si>
+    <t>E9308DA44D32ECF1E19F618CFEDA57F9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,95 +739,332 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +1113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -289,26 +1146,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -341,23 +1181,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,89 +1322,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <v>vector3</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="M1" s="1" t="str">
-        <v>int</v>
+    <row r="1" ht="21" customHeight="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -591,45 +1391,45 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>GUNNAME</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>GUNPREFAB</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>GUNICON</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>GUNICON_M</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>GUNLOC</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>GUNSCALE</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>IATURNICON</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <v>PRICETYPE</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <v>PRICE</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <v>FIREINTERVAL</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <v>BULLETCOUNT</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <v>HURT</v>
+    <row r="2" ht="21" customHeight="1" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -639,47 +1439,45 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="48" r="3">
-      <c r="A3" s="1" t="str">
-        <v>唯一ID</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>枪名字</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>枪预制体Guid</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>枪ICON</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>枪模型</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>枪展示位置</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>枪缩放</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <v>是否翻转ICON</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <v>0：免费
-1：金币购买|Ads
-2：ads</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>钻石|金币</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <v>发射间隔</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <v>子弹</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <v>伤害</v>
+    <row r="3" ht="48" customHeight="1" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -689,7 +1487,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row r="4" ht="21" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -711,15 +1509,15 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row r="5" ht="21" customHeight="1" spans="1:20">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>M4A1卡宾枪</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <v>587777AD4056DC3AB465FBA7D3F5F7BA</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>101168</v>
@@ -727,18 +1525,18 @@
       <c r="E5" s="2">
         <v>94153</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <v>-20|0|0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <v>1|15888</v>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K5" s="2">
         <v>0.2</v>
@@ -757,15 +1555,15 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row r="6" ht="21" customHeight="1" spans="1:20">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>AK47自动步枪</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <v>0D543D5346C331F41DA890A5E6DD3DB5</v>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>101171</v>
@@ -773,18 +1571,18 @@
       <c r="E6" s="2">
         <v>95712</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <v>-20|0|0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="str">
-        <v>1|18888</v>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="K6" s="2">
         <v>0.2</v>
@@ -803,15 +1601,15 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row r="7" ht="21" customHeight="1" spans="1:20">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>QBZ95式突击步枪</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <v>E3E0C2994D3518540DBB6D8C00C8AB83</v>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="2">
         <v>120590</v>
@@ -819,18 +1617,18 @@
       <c r="E7" s="2">
         <v>44974</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="str">
-        <v>2|35888</v>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K7" s="2">
         <v>0.15</v>
@@ -849,15 +1647,15 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row r="8" ht="21" customHeight="1" spans="1:20">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>SCAR突击步枪</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>5181250F44DF914A714B668F99177E3A</v>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="2">
         <v>120588</v>
@@ -865,18 +1663,18 @@
       <c r="E8" s="2">
         <v>43712</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <v>-10|0|0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="str">
-        <v>3|48888</v>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="K8" s="2">
         <v>0.15</v>
@@ -895,15 +1693,15 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row r="9" ht="21" customHeight="1" spans="1:20">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="str">
-        <v>突击步枪</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <v>1CD6AEAB4602DF140ACE93BD49D5CA19</v>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="3">
         <v>120587</v>
@@ -911,11 +1709,11 @@
       <c r="E9" s="3">
         <v>43710</v>
       </c>
-      <c r="F9" s="3" t="str">
-        <v>-10|0|0</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -923,8 +1721,8 @@
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="3" t="str">
-        <v>4|58888</v>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K9" s="3">
         <v>0.1</v>
@@ -943,15 +1741,15 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row r="10" ht="21" customHeight="1" spans="1:20">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="str">
-        <v>MP5冲锋枪</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <v>A469CCC84AAA873815243BB25439707C</v>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>101167</v>
@@ -959,18 +1757,18 @@
       <c r="E10" s="2">
         <v>99703</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="str">
-        <v>4|58888</v>
+      <c r="J10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="K10" s="2">
         <v>0.1</v>
@@ -989,15 +1787,15 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row r="11" ht="21" customHeight="1" spans="1:20">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>MP7冲锋枪</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <v>68E812DC47B714F9A2BB2ABE18304C5B</v>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="2">
         <v>101169</v>
@@ -1005,18 +1803,18 @@
       <c r="E11" s="2">
         <v>99701</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <v>-5|0|0</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <v>4|58888</v>
+      <c r="J11" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="K11" s="2">
         <v>0.1</v>
@@ -1035,15 +1833,15 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row r="12" ht="21" customHeight="1" spans="1:20">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>P90冲锋枪</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <v>BA1BDC034FCDE8574CBBAA8C4831A950</v>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="2">
         <v>120592</v>
@@ -1051,18 +1849,18 @@
       <c r="E12" s="2">
         <v>43734</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <v>10|0|0</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="str">
-        <v>5|68888</v>
+      <c r="J12" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K12" s="2">
         <v>0.1</v>
@@ -1081,15 +1879,15 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row r="13" ht="21" customHeight="1" spans="1:20">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>M249机枪</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <v>FCFE18BE440FAEBD5AB999A222F10AA9</v>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="2">
         <v>101166</v>
@@ -1097,18 +1895,18 @@
       <c r="E13" s="2">
         <v>95717</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <v>-20|0|0</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="2" t="str">
-        <v>5|78888</v>
+      <c r="J13" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="K13" s="2">
         <v>0.2</v>
@@ -1127,25 +1925,25 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row r="14" ht="21" customHeight="1" spans="1:20">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>激光幽灵枪</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <v>23240FEE4F3BD25DE8EA6DBE525B3A20</v>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>122716</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1153,8 +1951,8 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2" t="str">
-        <v>8|138888</v>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="2">
         <v>0.3</v>
@@ -1173,31 +1971,31 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row r="15" ht="21" customHeight="1" spans="1:20">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>烟花枪</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>A830458640D6EA21FB7AEA8F7E029CB7</v>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>122726</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="2" t="str">
-        <v>10|158888</v>
+      <c r="J15" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K15" s="1">
         <v>0.3</v>
@@ -1216,15 +2014,15 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row r="16" ht="21" customHeight="1" spans="1:20">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>激光烈火枪</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <v>0C7F278C4254F90F69614086DCA0B906</v>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D16" s="2">
         <v>101163</v>
@@ -1232,18 +2030,18 @@
       <c r="E16" s="2">
         <v>95676</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="F16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="2" t="str">
-        <v>12|188888</v>
+      <c r="J16" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K16" s="2">
         <v>0.3</v>
@@ -1262,15 +2060,15 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row r="17" ht="21" customHeight="1" spans="1:20">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>激光冰雷枪</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <v>29CD5E6145D1B05590E887A050E0D3C8</v>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="2">
         <v>66181</v>
@@ -1278,18 +2076,18 @@
       <c r="E17" s="2">
         <v>122720</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <v>15|208888</v>
+      <c r="J17" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K17" s="2">
         <v>0.3</v>
@@ -1308,27 +2106,27 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row r="18" ht="21" customHeight="1" spans="1:20">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>激光巴雷特</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <v>015C826546EBC60F95EF399D16523B78</v>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D18" s="2">
         <v>101165</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>99699</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1336,8 +2134,8 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="2" t="str">
-        <v>20|388888</v>
+      <c r="J18" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -1356,7 +2154,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row r="19" ht="21" customHeight="1" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1377,7 +2175,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row r="20" ht="21" customHeight="1" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1398,7 +2196,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row r="21" ht="21" customHeight="1" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1419,29 +2217,29 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row r="22" ht="21" customHeight="1" spans="1:20">
       <c r="A22" s="2"/>
-      <c r="B22" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>5F47861B4393F17B401DE1B260C37FFF</v>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <v>20799</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <v>-30|0|0</v>
-      </c>
-      <c r="G22" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="1" t="str">
-        <v>5|-1</v>
+      <c r="J22" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K22" s="1">
         <v>0.3</v>
@@ -1460,29 +2258,29 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row r="23" ht="21" customHeight="1" spans="1:20">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>1172035A40E88AC00E32E98A96BA38B4</v>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
         <v>87019</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="G23" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="str">
-        <v>20|288888</v>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -1501,28 +2299,28 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row r="24" ht="21" customHeight="1" spans="1:20">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="str">
-        <v>鸡枪</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>F518B8734B62A572C083A0A12C0DA023</v>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>20799</v>
       </c>
-      <c r="F24" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F24" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="J24" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J24" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
@@ -1537,28 +2335,28 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row r="25" ht="21" customHeight="1" spans="1:20">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="str">
-        <v>水枪</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>2A3F2A5E4DA7B3C642E5AB8389FB8D48</v>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
         <v>122716</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J25" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1571,28 +2369,28 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row r="26" ht="21" customHeight="1" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="str">
-        <v>火枪</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <v>5EF3A3E148FA5DADA349E5A05B93D1D6</v>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
         <v>122726</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <v>-30|0|0</v>
+      <c r="F26" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J26" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1605,28 +2403,28 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row r="27" ht="21" customHeight="1" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="str">
-        <v>泡泡枪</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <v>897F01494E651D7D9E00ECAD4D14C16C</v>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>168811</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F27" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J27" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1639,28 +2437,28 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row r="28" ht="21" customHeight="1" spans="1:20">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="str">
-        <v>小人闪电枪</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <v>9EFD21B44E4996A620BBA9964807B840</v>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <v>135222</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="J28" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J28" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1673,28 +2471,28 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row r="29" ht="21" customHeight="1" spans="1:20">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="str">
-        <v>脉冲枪</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <v>E9FC6ACE4AC66809036C0CA0E3515AC4</v>
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <v>153110</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F29" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J29" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1707,28 +2505,28 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row r="30" ht="21" customHeight="1" spans="1:20">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="str">
-        <v>火炮枪</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>B94E161D48D474A8BAC442A20B9913C5</v>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <v>218325</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J30" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1741,28 +2539,28 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row r="31" ht="21" customHeight="1" spans="1:20">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="str">
-        <v>彩弹枪</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <v>1DF90AAD4856CE9C07101B83DD991369</v>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <v>87019</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J31" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1775,28 +2573,28 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row r="32" ht="21" customHeight="1" spans="1:20">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="str">
-        <v>萝卜枪</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <v>AD25752D4D06791DD146D0ADC87C08C8</v>
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <v>174519</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F32" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J32" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1809,28 +2607,28 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row r="33" ht="21" customHeight="1" spans="1:20">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="str">
-        <v>加特林</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <v>E9308DA44D32ECF1E19F618CFEDA57F9</v>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
         <v>223966</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <v>0|0|0</v>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="1" t="str">
-        <v>1|-1</v>
+      <c r="J33" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1844,6 +2642,7 @@
       <c r="T33" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>